--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05671543082322916</v>
+        <v>0.1526727808725477</v>
       </c>
       <c r="D2">
-        <v>0.3103562825011426</v>
+        <v>0.3974693935216091</v>
       </c>
       <c r="E2">
-        <v>0.4434288996624938</v>
+        <v>0.3847456397084215</v>
       </c>
       <c r="F2">
-        <v>0.1253711658134236</v>
+        <v>0.1459621063166057</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05671543082322916</v>
+        <v>0.1526727808725477</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3220225432967694</v>
+        <v>0.4589534655230383</v>
       </c>
       <c r="E3">
-        <v>0.160908626049455</v>
+        <v>0.2941538800409709</v>
       </c>
       <c r="F3">
-        <v>0.4728483992194632</v>
+        <v>0.5610034795744343</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3103562825011426</v>
+        <v>0.3974693935216091</v>
       </c>
       <c r="C4">
-        <v>0.3220225432967694</v>
+        <v>0.4589534655230383</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5587906550479325</v>
+        <v>0.6123118183722083</v>
       </c>
       <c r="F4">
-        <v>0.7316805259738977</v>
+        <v>0.7701633429726855</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4434288996624938</v>
+        <v>0.3847456397084215</v>
       </c>
       <c r="C5">
-        <v>0.160908626049455</v>
+        <v>0.2941538800409709</v>
       </c>
       <c r="D5">
-        <v>0.5587906550479325</v>
+        <v>0.6123118183722083</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3213683687649049</v>
+        <v>0.3706408452925514</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1253711658134236</v>
+        <v>0.1459621063166057</v>
       </c>
       <c r="C6">
-        <v>0.4728483992194632</v>
+        <v>0.5610034795744343</v>
       </c>
       <c r="D6">
-        <v>0.7316805259738977</v>
+        <v>0.7701633429726855</v>
       </c>
       <c r="E6">
-        <v>0.3213683687649049</v>
+        <v>0.3706408452925514</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.910114054227322</v>
+        <v>-1.512406264111316</v>
       </c>
       <c r="D2">
-        <v>-1.015550258547908</v>
+        <v>-0.8728489151157318</v>
       </c>
       <c r="E2">
-        <v>-0.7670513205198635</v>
+        <v>-0.8972695369579118</v>
       </c>
       <c r="F2">
-        <v>-1.535296832518639</v>
+        <v>-1.539552960120117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.910114054227322</v>
+        <v>1.512406264111316</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9913349731774415</v>
+        <v>0.7615714069895181</v>
       </c>
       <c r="E3">
-        <v>1.404195707202546</v>
+        <v>1.089918960120735</v>
       </c>
       <c r="F3">
-        <v>0.7184203786549743</v>
+        <v>0.5955148722530386</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.015550258547908</v>
+        <v>0.8728489151157318</v>
       </c>
       <c r="C4">
-        <v>-0.9913349731774415</v>
+        <v>-0.7615714069895181</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5850484083530328</v>
+        <v>0.5183456872182491</v>
       </c>
       <c r="F4">
-        <v>-0.3430909960531311</v>
+        <v>-0.2978883076503569</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7670513205198635</v>
+        <v>0.8972695369579118</v>
       </c>
       <c r="C5">
-        <v>-1.404195707202546</v>
+        <v>-1.089918960120735</v>
       </c>
       <c r="D5">
-        <v>-0.5850484083530328</v>
+        <v>-0.5183456872182491</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.9926774170660633</v>
+        <v>-0.9249905528605229</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.535296832518639</v>
+        <v>1.539552960120117</v>
       </c>
       <c r="C6">
-        <v>-0.7184203786549743</v>
+        <v>-0.5955148722530386</v>
       </c>
       <c r="D6">
-        <v>0.3430909960531311</v>
+        <v>0.2978883076503569</v>
       </c>
       <c r="E6">
-        <v>0.9926774170660633</v>
+        <v>0.9249905528605229</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1526727808725477</v>
+        <v>0.05762308131179572</v>
       </c>
       <c r="D2">
-        <v>0.3974693935216091</v>
+        <v>0.4444283638728075</v>
       </c>
       <c r="E2">
-        <v>0.3847456397084215</v>
+        <v>0.2356356109012649</v>
       </c>
       <c r="F2">
-        <v>0.1459621063166057</v>
+        <v>0.1204976947708518</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1526727808725477</v>
+        <v>0.05762308131179572</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4589534655230383</v>
+        <v>0.02104340329416643</v>
       </c>
       <c r="E3">
-        <v>0.2941538800409709</v>
+        <v>0.1824091368557001</v>
       </c>
       <c r="F3">
-        <v>0.5610034795744343</v>
+        <v>0.9633068033432728</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3974693935216091</v>
+        <v>0.4444283638728075</v>
       </c>
       <c r="C4">
-        <v>0.4589534655230383</v>
+        <v>0.02104340329416643</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.6123118183722083</v>
+        <v>0.2419459694586941</v>
       </c>
       <c r="F4">
-        <v>0.7701633429726855</v>
+        <v>0.112139991160437</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3847456397084215</v>
+        <v>0.2356356109012649</v>
       </c>
       <c r="C5">
-        <v>0.2941538800409709</v>
+        <v>0.1824091368557001</v>
       </c>
       <c r="D5">
-        <v>0.6123118183722083</v>
+        <v>0.2419459694586941</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3706408452925514</v>
+        <v>0.3835465974108305</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1459621063166057</v>
+        <v>0.1204976947708518</v>
       </c>
       <c r="C6">
-        <v>0.5610034795744343</v>
+        <v>0.9633068033432728</v>
       </c>
       <c r="D6">
-        <v>0.7701633429726855</v>
+        <v>0.112139991160437</v>
       </c>
       <c r="E6">
-        <v>0.3706408452925514</v>
+        <v>0.3835465974108305</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.512406264111316</v>
+        <v>2.003234709540869</v>
       </c>
       <c r="D2">
-        <v>-0.8728489151157318</v>
+        <v>0.7787409454903369</v>
       </c>
       <c r="E2">
-        <v>-0.8972695369579118</v>
+        <v>1.219318115143743</v>
       </c>
       <c r="F2">
-        <v>-1.539552960120117</v>
+        <v>1.61529883131976</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.512406264111316</v>
+        <v>-2.003234709540869</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7615714069895181</v>
+        <v>-2.485026312755084</v>
       </c>
       <c r="E3">
-        <v>1.089918960120735</v>
+        <v>-1.376850695642922</v>
       </c>
       <c r="F3">
-        <v>0.5955148722530386</v>
+        <v>0.04653104094200424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8728489151157318</v>
+        <v>-0.7787409454903369</v>
       </c>
       <c r="C4">
-        <v>-0.7615714069895181</v>
+        <v>2.485026312755084</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5183456872182491</v>
+        <v>1.202518403940265</v>
       </c>
       <c r="F4">
-        <v>-0.2978883076503569</v>
+        <v>1.654912242573098</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8972695369579118</v>
+        <v>-1.219318115143743</v>
       </c>
       <c r="C5">
-        <v>-1.089918960120735</v>
+        <v>1.376850695642922</v>
       </c>
       <c r="D5">
-        <v>-0.5183456872182491</v>
+        <v>-1.202518403940265</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.9249905528605229</v>
+        <v>0.8891411893389889</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.539552960120117</v>
+        <v>-1.61529883131976</v>
       </c>
       <c r="C6">
-        <v>-0.5955148722530386</v>
+        <v>-0.04653104094200424</v>
       </c>
       <c r="D6">
-        <v>0.2978883076503569</v>
+        <v>-1.654912242573098</v>
       </c>
       <c r="E6">
-        <v>0.9249905528605229</v>
+        <v>-0.8891411893389889</v>
       </c>
       <c r="F6">
         <v>0</v>
